--- a/Report/Misc/Test Output/Simple Plane Test/Continuous/Graphs.xlsx
+++ b/Report/Misc/Test Output/Simple Plane Test/Continuous/Graphs.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -445,7 +445,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation X Over Time</a:t>
+              <a:t>Rotation X Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,37 +490,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.27824958856859</c:v>
+                  <c:v>0.406879481051744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.28635333139855</c:v>
+                  <c:v>0.409458982509614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29187621934856</c:v>
+                  <c:v>0.411216972344385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29519463643352</c:v>
+                  <c:v>0.41227325730901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.29656649369489</c:v>
+                  <c:v>0.412709933037737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.29805982251457</c:v>
+                  <c:v>0.413185274364363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.30098687937905</c:v>
+                  <c:v>0.41411698550175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.30681847519126</c:v>
+                  <c:v>0.415973240101005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.31461400748593</c:v>
+                  <c:v>0.418454635098463</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.34414150348025</c:v>
+                  <c:v>0.427853528987709</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.38346269539534</c:v>
+                  <c:v>0.440369853110812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="46081541"/>
-        <c:axId val="30820572"/>
+        <c:axId val="74259678"/>
+        <c:axId val="80667280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46081541"/>
+        <c:axId val="74259678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30820572"/>
+        <c:crossAx val="80667280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30820572"/>
+        <c:axId val="80667280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46081541"/>
+        <c:crossAx val="74259678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,7 +647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -667,7 +667,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Y Over Time</a:t>
+              <a:t>Rotation Y Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -712,37 +712,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.26814588502842</c:v>
+                  <c:v>0.403663372327838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25866093683893</c:v>
+                  <c:v>0.400644219549183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25040265024722</c:v>
+                  <c:v>0.398015525284104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2430629048185</c:v>
+                  <c:v>0.39567921175207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23634337668122</c:v>
+                  <c:v>0.393540319515483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2285172386162</c:v>
+                  <c:v>0.391049182398748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.21865814245868</c:v>
+                  <c:v>0.387910934622973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.20604996395524</c:v>
+                  <c:v>0.383897626758559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.19190770535118</c:v>
+                  <c:v>0.379396006031917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.16590151160894</c:v>
+                  <c:v>0.37111797746175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.13882880668607</c:v>
+                  <c:v>0.362500467839064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,11 +757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25080994"/>
-        <c:axId val="84931470"/>
+        <c:axId val="69569304"/>
+        <c:axId val="54207216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25080994"/>
+        <c:axId val="69569304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,14 +798,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84931470"/>
+        <c:crossAx val="54207216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84931470"/>
+        <c:axId val="54207216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25080994"/>
+        <c:crossAx val="69569304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -869,7 +869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -889,7 +889,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Z Over Time</a:t>
+              <a:t>Rotation Z Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -934,37 +934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.20596079123359</c:v>
+                  <c:v>0.383869242199677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2067103271941</c:v>
+                  <c:v>0.38410782690596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.20722121781175</c:v>
+                  <c:v>0.384270448440314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.20841036974166</c:v>
+                  <c:v>0.384648967255781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21037057577828</c:v>
+                  <c:v>0.385272920216193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.21604508219757</c:v>
+                  <c:v>0.387079171708667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.22491930077622</c:v>
+                  <c:v>0.389903923214408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.23629171974476</c:v>
+                  <c:v>0.393523876601916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.24732593967429</c:v>
+                  <c:v>0.397036177891814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.26852173419346</c:v>
+                  <c:v>0.403783008832784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.28609648215202</c:v>
+                  <c:v>0.409377224855183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,11 +979,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76710917"/>
-        <c:axId val="50282706"/>
+        <c:axId val="70787027"/>
+        <c:axId val="26460656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76710917"/>
+        <c:axId val="70787027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,14 +1020,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50282706"/>
+        <c:crossAx val="26460656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50282706"/>
+        <c:axId val="26460656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76710917"/>
+        <c:crossAx val="70787027"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1111,7 +1111,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation X Over Time</a:t>
+              <a:t>Translation X Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1201,11 +1201,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="29880974"/>
-        <c:axId val="24269453"/>
+        <c:axId val="35103409"/>
+        <c:axId val="16543561"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29880974"/>
+        <c:axId val="35103409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24269453"/>
+        <c:crossAx val="16543561"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24269453"/>
+        <c:axId val="16543561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29880974"/>
+        <c:crossAx val="35103409"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1304,7 +1304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1324,7 +1324,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Y Over Time</a:t>
+              <a:t>Translation Y Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,11 +1414,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41208140"/>
-        <c:axId val="7777128"/>
+        <c:axId val="37753776"/>
+        <c:axId val="1491495"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41208140"/>
+        <c:axId val="37753776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,14 +1455,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7777128"/>
+        <c:crossAx val="1491495"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7777128"/>
+        <c:axId val="1491495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41208140"/>
+        <c:crossAx val="37753776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,7 +1526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1546,7 +1546,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Z Over Time</a:t>
+              <a:t>Translation Z Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1636,11 +1636,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92378814"/>
-        <c:axId val="53165193"/>
+        <c:axId val="1699572"/>
+        <c:axId val="86741031"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92378814"/>
+        <c:axId val="1699572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53165193"/>
+        <c:crossAx val="86741031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53165193"/>
+        <c:axId val="86741031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92378814"/>
+        <c:crossAx val="1699572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,7 +1748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1858,11 +1858,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="64737784"/>
-        <c:axId val="88423603"/>
+        <c:axId val="25318490"/>
+        <c:axId val="23090629"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64737784"/>
+        <c:axId val="25318490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88423603"/>
+        <c:crossAx val="23090629"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88423603"/>
+        <c:axId val="23090629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64737784"/>
+        <c:crossAx val="25318490"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1970,7 +1970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2080,11 +2080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="18839440"/>
-        <c:axId val="32242691"/>
+        <c:axId val="14337544"/>
+        <c:axId val="12950775"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18839440"/>
+        <c:axId val="14337544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,14 +2121,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32242691"/>
+        <c:crossAx val="12950775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32242691"/>
+        <c:axId val="12950775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18839440"/>
+        <c:crossAx val="14337544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2192,7 +2192,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2302,11 +2302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="77919202"/>
-        <c:axId val="75092231"/>
+        <c:axId val="47706475"/>
+        <c:axId val="87615236"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77919202"/>
+        <c:axId val="47706475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2343,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75092231"/>
+        <c:crossAx val="87615236"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75092231"/>
+        <c:axId val="87615236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77919202"/>
+        <c:crossAx val="47706475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,7 +2414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2434,7 +2434,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Error Over Time</a:t>
+              <a:t>Error Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2524,11 +2524,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81966405"/>
-        <c:axId val="82620449"/>
+        <c:axId val="7336843"/>
+        <c:axId val="16791430"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81966405"/>
+        <c:axId val="7336843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2565,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82620449"/>
+        <c:crossAx val="16791430"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82620449"/>
+        <c:axId val="16791430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81966405"/>
+        <c:crossAx val="7336843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2670,16 +2670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:colOff>62640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28282680" y="3900960"/>
+        <a:off x="28272600" y="4073040"/>
         <a:ext cx="5755320" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2701,15 +2701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>779400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>808920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28242360" y="7305840"/>
+        <a:off x="28271880" y="7659360"/>
         <a:ext cx="5765040" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2949,7 +2949,7 @@
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56:M56"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,39 +3020,39 @@
         <v>4.955229</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">COS(G5) - SIN(H5) + SIN(G6) + COS(H6)</f>
-        <v>1.27824958856859</v>
+        <f aca="false"> (COS(G5) - SIN(H5) + SIN(G6) + COS(H6)) / PI()</f>
+        <v>0.406879481051744</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">COS(F4) + SIN(H4) - SIN(F6) + COS(H6)</f>
-        <v>1.26814588502842</v>
+        <f aca="false"> (COS(F4) + SIN(H4) - SIN(F6) + COS(H6)) / PI()</f>
+        <v>0.403663372327838</v>
       </c>
       <c r="M4" s="0" t="n">
-        <f aca="false">COS(F4) - SIN(G4) + SIN(F5) + COS(G5)</f>
-        <v>1.20596079123359</v>
+        <f aca="false"> (COS(F4) - SIN(G4) + SIN(F5) + COS(G5)) / PI()</f>
+        <v>0.383869242199677</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">I4</f>
+        <f aca="false"> I4</f>
         <v>4.955229</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">I5</f>
+        <f aca="false"> I5</f>
         <v>8.975059</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="false">I6</f>
+        <f aca="false"> I6</f>
         <v>9.531173</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">F4</f>
+        <f aca="false"> F4</f>
         <v>0.99442</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">G5</f>
+        <f aca="false"> G5</f>
         <v>0.993979</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">H6</f>
+        <f aca="false"> H6</f>
         <v>0.991756</v>
       </c>
       <c r="W4" s="0" t="n">
@@ -3121,39 +3121,39 @@
         <v>5.638107</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">COS(G10) - SIN(H10) + SIN(G11) + COS(H11)</f>
-        <v>1.28635333139855</v>
+        <f aca="false"> (COS(G10) - SIN(H10) + SIN(G11) + COS(H11)) / PI()</f>
+        <v>0.409458982509614</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">COS(F9) + SIN(H9) - SIN(F11) + COS(H11)</f>
-        <v>1.25866093683893</v>
+        <f aca="false"> (COS(F9) + SIN(H9) - SIN(F11) + COS(H11)) / PI()</f>
+        <v>0.400644219549183</v>
       </c>
       <c r="M9" s="0" t="n">
-        <f aca="false">COS(F9) - SIN(G9) + SIN(F10) + COS(G10)</f>
-        <v>1.2067103271941</v>
+        <f aca="false"> (COS(F9) - SIN(G9) + SIN(F10) + COS(G10)) / PI()</f>
+        <v>0.38410782690596</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">I9</f>
+        <f aca="false"> I9</f>
         <v>5.638107</v>
       </c>
       <c r="P9" s="0" t="n">
-        <f aca="false">I10</f>
+        <f aca="false"> I10</f>
         <v>9.290611</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="false">I11</f>
+        <f aca="false"> I11</f>
         <v>10.052065</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">F9</f>
+        <f aca="false"> F9</f>
         <v>0.994795</v>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">G10</f>
+        <f aca="false"> G10</f>
         <v>0.993585</v>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">H11</f>
+        <f aca="false"> H11</f>
         <v>0.991779</v>
       </c>
       <c r="W9" s="0" t="n">
@@ -3222,39 +3222,39 @@
         <v>6.309656</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">COS(G15) - SIN(H15) + SIN(G16) + COS(H16)</f>
-        <v>1.29187621934856</v>
+        <f aca="false"> (COS(G15) - SIN(H15) + SIN(G16) + COS(H16)) / PI()</f>
+        <v>0.411216972344385</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">COS(F14) + SIN(H14) - SIN(F16) + COS(H16)</f>
-        <v>1.25040265024722</v>
+        <f aca="false"> (COS(F14) + SIN(H14) - SIN(F16) + COS(H16)) / PI()</f>
+        <v>0.398015525284104</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">COS(F14) - SIN(G14) + SIN(F15) + COS(G15)</f>
-        <v>1.20722121781175</v>
+        <f aca="false"> (COS(F14) - SIN(G14) + SIN(F15) + COS(G15)) / PI()</f>
+        <v>0.384270448440314</v>
       </c>
       <c r="O14" s="0" t="n">
-        <f aca="false">I14</f>
+        <f aca="false"> I14</f>
         <v>6.309656</v>
       </c>
       <c r="P14" s="0" t="n">
-        <f aca="false">I15</f>
+        <f aca="false"> I15</f>
         <v>9.413668</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">I16</f>
+        <f aca="false"> I16</f>
         <v>10.60313</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">F14</f>
+        <f aca="false"> F14</f>
         <v>0.995106</v>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">G15</f>
+        <f aca="false"> G15</f>
         <v>0.993305</v>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">H16</f>
+        <f aca="false"> H16</f>
         <v>0.991841</v>
       </c>
       <c r="W14" s="0" t="n">
@@ -3323,39 +3323,39 @@
         <v>6.98118</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">COS(G20) - SIN(H20) + SIN(G21) + COS(H21)</f>
-        <v>1.29519463643352</v>
+        <f aca="false"> (COS(G20) - SIN(H20) + SIN(G21) + COS(H21)) / PI()</f>
+        <v>0.41227325730901</v>
       </c>
       <c r="L19" s="0" t="n">
-        <f aca="false">COS(F19) + SIN(H19) - SIN(F21) + COS(H21)</f>
-        <v>1.2430629048185</v>
+        <f aca="false"> (COS(F19) + SIN(H19) - SIN(F21) + COS(H21)) / PI()</f>
+        <v>0.39567921175207</v>
       </c>
       <c r="M19" s="0" t="n">
-        <f aca="false">COS(F19) - SIN(G19) + SIN(F20) + COS(G20)</f>
-        <v>1.20841036974166</v>
+        <f aca="false"> (COS(F19) - SIN(G19) + SIN(F20) + COS(G20)) / PI()</f>
+        <v>0.384648967255781</v>
       </c>
       <c r="O19" s="0" t="n">
-        <f aca="false">I19</f>
+        <f aca="false"> I19</f>
         <v>6.98118</v>
       </c>
       <c r="P19" s="0" t="n">
-        <f aca="false">I20</f>
+        <f aca="false"> I20</f>
         <v>9.339505</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <f aca="false">I21</f>
+        <f aca="false"> I21</f>
         <v>11.118762</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">F19</f>
+        <f aca="false"> F19</f>
         <v>0.995346</v>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">G20</f>
+        <f aca="false"> G20</f>
         <v>0.993105</v>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">H21</f>
+        <f aca="false"> H21</f>
         <v>0.991953</v>
       </c>
       <c r="W19" s="0" t="n">
@@ -3424,39 +3424,39 @@
         <v>7.62805</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">COS(G25) - SIN(H25) + SIN(G26) + COS(H26)</f>
-        <v>1.29656649369489</v>
+        <f aca="false"> (COS(G25) - SIN(H25) + SIN(G26) + COS(H26)) / PI()</f>
+        <v>0.412709933037737</v>
       </c>
       <c r="L24" s="0" t="n">
-        <f aca="false">COS(F24) + SIN(H24) - SIN(F26) + COS(H26)</f>
-        <v>1.23634337668122</v>
+        <f aca="false"> (COS(F24) + SIN(H24) - SIN(F26) + COS(H26)) / PI()</f>
+        <v>0.393540319515483</v>
       </c>
       <c r="M24" s="0" t="n">
-        <f aca="false">COS(F24) - SIN(G24) + SIN(F25) + COS(G25)</f>
-        <v>1.21037057577828</v>
+        <f aca="false"> (COS(F24) - SIN(G24) + SIN(F25) + COS(G25)) / PI()</f>
+        <v>0.385272920216193</v>
       </c>
       <c r="O24" s="0" t="n">
-        <f aca="false">I24</f>
+        <f aca="false"> I24</f>
         <v>7.62805</v>
       </c>
       <c r="P24" s="0" t="n">
-        <f aca="false">I25</f>
+        <f aca="false"> I25</f>
         <v>9.083916</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <f aca="false">I26</f>
+        <f aca="false"> I26</f>
         <v>11.550898</v>
       </c>
       <c r="S24" s="0" t="n">
-        <f aca="false">F24</f>
+        <f aca="false"> F24</f>
         <v>0.995527</v>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">G25</f>
+        <f aca="false"> G25</f>
         <v>0.992973</v>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">H26</f>
+        <f aca="false"> H26</f>
         <v>0.992122</v>
       </c>
       <c r="W24" s="0" t="n">
@@ -3525,39 +3525,39 @@
         <v>8.250182</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">COS(G30) - SIN(H30) + SIN(G31) + COS(H31)</f>
-        <v>1.29805982251457</v>
+        <f aca="false"> (COS(G30) - SIN(H30) + SIN(G31) + COS(H31)) / PI()</f>
+        <v>0.413185274364363</v>
       </c>
       <c r="L29" s="0" t="n">
-        <f aca="false">COS(F29) + SIN(H29) - SIN(F31) + COS(H31)</f>
-        <v>1.2285172386162</v>
+        <f aca="false"> (COS(F29) + SIN(H29) - SIN(F31) + COS(H31)) / PI()</f>
+        <v>0.391049182398748</v>
       </c>
       <c r="M29" s="0" t="n">
-        <f aca="false">COS(F29) - SIN(G29) + SIN(F30) + COS(G30)</f>
-        <v>1.21604508219757</v>
+        <f aca="false"> (COS(F29) - SIN(G29) + SIN(F30) + COS(G30)) / PI()</f>
+        <v>0.387079171708667</v>
       </c>
       <c r="O29" s="0" t="n">
-        <f aca="false">I29</f>
+        <f aca="false"> I29</f>
         <v>8.250182</v>
       </c>
       <c r="P29" s="0" t="n">
-        <f aca="false">I30</f>
+        <f aca="false"> I30</f>
         <v>8.644281</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <f aca="false">I31</f>
+        <f aca="false"> I31</f>
         <v>11.827806</v>
       </c>
       <c r="S29" s="0" t="n">
-        <f aca="false">F29</f>
+        <f aca="false"> F29</f>
         <v>0.995626</v>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">G30</f>
+        <f aca="false"> G30</f>
         <v>0.992727</v>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">H31</f>
+        <f aca="false"> H31</f>
         <v>0.992318</v>
       </c>
       <c r="W29" s="0" t="n">
@@ -3626,39 +3626,39 @@
         <v>8.840562</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">COS(G35) - SIN(H35) + SIN(G36) + COS(H36)</f>
-        <v>1.30098687937905</v>
+        <f aca="false"> (COS(G35) - SIN(H35) + SIN(G36) + COS(H36)) / PI()</f>
+        <v>0.41411698550175</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">COS(F34) + SIN(H34) - SIN(F36) + COS(H36)</f>
-        <v>1.21865814245868</v>
+        <f aca="false"> (COS(F34) + SIN(H34) - SIN(F36) + COS(H36)) / PI()</f>
+        <v>0.387910934622973</v>
       </c>
       <c r="M34" s="0" t="n">
-        <f aca="false">COS(F34) - SIN(G34) + SIN(F35) + COS(G35)</f>
-        <v>1.22491930077622</v>
+        <f aca="false"> (COS(F34) - SIN(G34) + SIN(F35) + COS(G35)) / PI()</f>
+        <v>0.389903923214408</v>
       </c>
       <c r="O34" s="0" t="n">
-        <f aca="false">I34</f>
+        <f aca="false"> I34</f>
         <v>8.840562</v>
       </c>
       <c r="P34" s="0" t="n">
-        <f aca="false">I35</f>
+        <f aca="false"> I35</f>
         <v>8.099071</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <f aca="false">I36</f>
+        <f aca="false"> I36</f>
         <v>11.915884</v>
       </c>
       <c r="S34" s="0" t="n">
-        <f aca="false">F34</f>
+        <f aca="false"> F34</f>
         <v>0.99567</v>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">G35</f>
+        <f aca="false"> G35</f>
         <v>0.992304</v>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">H36</f>
+        <f aca="false"> H36</f>
         <v>0.992499</v>
       </c>
       <c r="W34" s="0" t="n">
@@ -3727,39 +3727,39 @@
         <v>9.309746</v>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="false">COS(G40) - SIN(H40) + SIN(G41) + COS(H41)</f>
-        <v>1.30681847519126</v>
+        <f aca="false"> (COS(G40) - SIN(H40) + SIN(G41) + COS(H41)) / PI()</f>
+        <v>0.415973240101005</v>
       </c>
       <c r="L39" s="0" t="n">
-        <f aca="false">COS(F39) + SIN(H39) - SIN(F41) + COS(H41)</f>
-        <v>1.20604996395524</v>
+        <f aca="false"> (COS(F39) + SIN(H39) - SIN(F41) + COS(H41)) / PI()</f>
+        <v>0.383897626758559</v>
       </c>
       <c r="M39" s="0" t="n">
-        <f aca="false">COS(F39) - SIN(G39) + SIN(F40) + COS(G40)</f>
-        <v>1.23629171974476</v>
+        <f aca="false"> (COS(F39) - SIN(G39) + SIN(F40) + COS(G40)) / PI()</f>
+        <v>0.393523876601916</v>
       </c>
       <c r="O39" s="0" t="n">
-        <f aca="false">I39</f>
+        <f aca="false"> I39</f>
         <v>9.309746</v>
       </c>
       <c r="P39" s="0" t="n">
-        <f aca="false">I40</f>
+        <f aca="false"> I40</f>
         <v>7.413734</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <f aca="false">I41</f>
+        <f aca="false"> I41</f>
         <v>11.798303</v>
       </c>
       <c r="S39" s="0" t="n">
-        <f aca="false">F39</f>
+        <f aca="false"> F39</f>
         <v>0.995673</v>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">G40</f>
+        <f aca="false"> G40</f>
         <v>0.991637</v>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">H41</f>
+        <f aca="false"> H41</f>
         <v>0.992598</v>
       </c>
       <c r="W39" s="0" t="n">
@@ -3828,39 +3828,39 @@
         <v>9.74211</v>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="false">COS(G45) - SIN(H45) + SIN(G46) + COS(H46)</f>
-        <v>1.31461400748593</v>
+        <f aca="false"> (COS(G45) - SIN(H45) + SIN(G46) + COS(H46)) / PI()</f>
+        <v>0.418454635098463</v>
       </c>
       <c r="L44" s="0" t="n">
-        <f aca="false">COS(F44) + SIN(H44) - SIN(F46) + COS(H46)</f>
-        <v>1.19190770535118</v>
+        <f aca="false"> (COS(F44) + SIN(H44) - SIN(F46) + COS(H46)) / PI()</f>
+        <v>0.379396006031917</v>
       </c>
       <c r="M44" s="0" t="n">
-        <f aca="false">COS(F44) - SIN(G44) + SIN(F45) + COS(G45)</f>
-        <v>1.24732593967429</v>
+        <f aca="false"> (COS(F44) - SIN(G44) + SIN(F45) + COS(G45)) / PI()</f>
+        <v>0.397036177891814</v>
       </c>
       <c r="O44" s="0" t="n">
-        <f aca="false">I44</f>
+        <f aca="false"> I44</f>
         <v>9.74211</v>
       </c>
       <c r="P44" s="0" t="n">
-        <f aca="false">I45</f>
+        <f aca="false"> I45</f>
         <v>6.918821</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <f aca="false">I46</f>
+        <f aca="false"> I46</f>
         <v>11.625865</v>
       </c>
       <c r="S44" s="0" t="n">
-        <f aca="false">F44</f>
+        <f aca="false"> F44</f>
         <v>0.995666</v>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">G45</f>
+        <f aca="false"> G45</f>
         <v>0.990851</v>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">H46</f>
+        <f aca="false"> H46</f>
         <v>0.992592</v>
       </c>
       <c r="W44" s="0" t="n">
@@ -3929,39 +3929,39 @@
         <v>9.72576</v>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="false">COS(G50) - SIN(H50) + SIN(G51) + COS(H51)</f>
-        <v>1.34414150348025</v>
+        <f aca="false"> (COS(G50) - SIN(H50) + SIN(G51) + COS(H51)) / PI()</f>
+        <v>0.427853528987709</v>
       </c>
       <c r="L49" s="0" t="n">
-        <f aca="false">COS(F49) + SIN(H49) - SIN(F51) + COS(H51)</f>
-        <v>1.16590151160894</v>
+        <f aca="false"> (COS(F49) + SIN(H49) - SIN(F51) + COS(H51)) / PI()</f>
+        <v>0.37111797746175</v>
       </c>
       <c r="M49" s="0" t="n">
-        <f aca="false">COS(F49) - SIN(G49) + SIN(F50) + COS(G50)</f>
-        <v>1.26852173419346</v>
+        <f aca="false"> (COS(F49) - SIN(G49) + SIN(F50) + COS(G50)) / PI()</f>
+        <v>0.403783008832784</v>
       </c>
       <c r="O49" s="0" t="n">
-        <f aca="false">I49</f>
+        <f aca="false"> I49</f>
         <v>9.72576</v>
       </c>
       <c r="P49" s="0" t="n">
-        <f aca="false">I50</f>
+        <f aca="false"> I50</f>
         <v>6.495347</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <f aca="false">I51</f>
+        <f aca="false"> I51</f>
         <v>12.091609</v>
       </c>
       <c r="S49" s="0" t="n">
-        <f aca="false">F49</f>
+        <f aca="false"> F49</f>
         <v>0.995467</v>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">G50</f>
+        <f aca="false"> G50</f>
         <v>0.988468</v>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">H51</f>
+        <f aca="false"> H51</f>
         <v>0.991601</v>
       </c>
       <c r="W49" s="0" t="n">
@@ -4030,39 +4030,39 @@
         <v>9.313677</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">COS(G55) - SIN(H55) + SIN(G56) + COS(H56)</f>
-        <v>1.38346269539534</v>
+        <f aca="false"> (COS(G55) - SIN(H55) + SIN(G56) + COS(H56)) / PI()</f>
+        <v>0.440369853110812</v>
       </c>
       <c r="L54" s="0" t="n">
-        <f aca="false">COS(F54) + SIN(H54) - SIN(F56) + COS(H56)</f>
-        <v>1.13882880668607</v>
+        <f aca="false"> (COS(F54) + SIN(H54) - SIN(F56) + COS(H56)) / PI()</f>
+        <v>0.362500467839064</v>
       </c>
       <c r="M54" s="0" t="n">
-        <f aca="false">COS(F54) - SIN(G54) + SIN(F55) + COS(G55)</f>
-        <v>1.28609648215202</v>
+        <f aca="false"> (COS(F54) - SIN(G54) + SIN(F55) + COS(G55)) / PI()</f>
+        <v>0.409377224855183</v>
       </c>
       <c r="O54" s="0" t="n">
-        <f aca="false">I54</f>
+        <f aca="false"> I54</f>
         <v>9.313677</v>
       </c>
       <c r="P54" s="0" t="n">
-        <f aca="false">I55</f>
+        <f aca="false"> I55</f>
         <v>5.643911</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <f aca="false">I56</f>
+        <f aca="false"> I56</f>
         <v>13.079778</v>
       </c>
       <c r="S54" s="0" t="n">
-        <f aca="false">F54</f>
+        <f aca="false"> F54</f>
         <v>0.995217</v>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">G55</f>
+        <f aca="false"> G55</f>
         <v>0.985404</v>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">H56</f>
+        <f aca="false"> H56</f>
         <v>0.989659</v>
       </c>
       <c r="W54" s="0" t="n">
